--- a/results/mp/logistic/corona/confidence/42/0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,15 @@
     <t>forced</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
@@ -73,7 +73,7 @@
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
@@ -88,15 +88,15 @@
     <t>stop</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
@@ -106,151 +106,160 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>growth</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>you</t>
@@ -617,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +719,13 @@
         <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -728,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,13 +769,13 @@
         <v>31</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +819,13 @@
         <v>32</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5882352941176471</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5769230769230769</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K7">
-        <v>0.9152542372881356</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8839285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4021164021164021</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C10">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1054,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3783783783783784</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K11">
-        <v>0.8421052631578947</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3333333333333333</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K12">
-        <v>0.8172323759791122</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3158914728682171</v>
+        <v>0.3197674418604651</v>
       </c>
       <c r="C13">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D13">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2711864406779661</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K14">
-        <v>0.7830188679245284</v>
+        <v>0.79375</v>
       </c>
       <c r="L14">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="M14">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1319,13 @@
         <v>42</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1328,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1342281879194631</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1378,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1419,13 @@
         <v>44</v>
       </c>
       <c r="K17">
-        <v>0.7746478873239436</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1445,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.05158730158730158</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K18">
-        <v>0.7692307692307693</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,37 +1495,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006731173748422381</v>
+        <v>0.006542056074766356</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="F19">
-        <v>0.89</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2361</v>
+        <v>2126</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7734375</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,37 +1545,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005644811115935736</v>
+        <v>0.006445375443119562</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="F20">
-        <v>0.6799999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2290</v>
+        <v>3083</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>0.73125</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L20">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1578,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,37 +1595,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004832474226804124</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F21">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3089</v>
+        <v>3185</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1628,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1636,37 +1645,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.003497182824946571</v>
+        <v>0.003882741215298</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>5129</v>
+        <v>5131</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K22">
-        <v>0.7272727272727273</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1678,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1686,37 +1695,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.003249013692271989</v>
+        <v>0.003478664192949907</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="F23">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4295</v>
+        <v>4297</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1728,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,13 +1745,13 @@
         <v>51</v>
       </c>
       <c r="K24">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1754,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1762,13 +1771,13 @@
         <v>52</v>
       </c>
       <c r="K25">
-        <v>0.7037037037037037</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1780,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1788,13 +1797,13 @@
         <v>53</v>
       </c>
       <c r="K26">
-        <v>0.7021276595744681</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1806,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1814,13 +1823,13 @@
         <v>54</v>
       </c>
       <c r="K27">
-        <v>0.696969696969697</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1832,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1840,13 +1849,13 @@
         <v>55</v>
       </c>
       <c r="K28">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1858,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1866,13 +1875,13 @@
         <v>56</v>
       </c>
       <c r="K29">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1884,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1892,13 +1901,13 @@
         <v>57</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.66</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1910,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1918,13 +1927,13 @@
         <v>58</v>
       </c>
       <c r="K31">
-        <v>0.6279069767441861</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1936,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1944,13 +1953,13 @@
         <v>59</v>
       </c>
       <c r="K32">
-        <v>0.6147058823529412</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L32">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1962,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1970,13 +1979,13 @@
         <v>60</v>
       </c>
       <c r="K33">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1988,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1996,13 +2005,13 @@
         <v>61</v>
       </c>
       <c r="K34">
-        <v>0.5846153846153846</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2014,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2048,13 +2057,13 @@
         <v>63</v>
       </c>
       <c r="K36">
-        <v>0.5714285714285714</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2066,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2100,13 +2109,13 @@
         <v>65</v>
       </c>
       <c r="K38">
-        <v>0.5531914893617021</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L38">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="M38">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2118,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2126,13 +2135,13 @@
         <v>66</v>
       </c>
       <c r="K39">
-        <v>0.5523012552301255</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L39">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="M39">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2144,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2152,13 +2161,13 @@
         <v>67</v>
       </c>
       <c r="K40">
-        <v>0.55</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2170,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2178,13 +2187,13 @@
         <v>68</v>
       </c>
       <c r="K41">
-        <v>0.5491525423728814</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L41">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2196,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2204,13 +2213,13 @@
         <v>69</v>
       </c>
       <c r="K42">
-        <v>0.5151515151515151</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2222,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2230,13 +2239,13 @@
         <v>70</v>
       </c>
       <c r="K43">
-        <v>0.5142857142857142</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L43">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2248,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2256,13 +2265,13 @@
         <v>71</v>
       </c>
       <c r="K44">
-        <v>0.4642857142857143</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2274,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2282,13 +2291,13 @@
         <v>72</v>
       </c>
       <c r="K45">
-        <v>0.4157303370786517</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2300,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2308,13 +2317,13 @@
         <v>73</v>
       </c>
       <c r="K46">
-        <v>0.3725490196078431</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2326,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2334,13 +2343,13 @@
         <v>74</v>
       </c>
       <c r="K47">
-        <v>0.3571428571428572</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2352,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2360,13 +2369,13 @@
         <v>75</v>
       </c>
       <c r="K48">
-        <v>0.3205128205128205</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L48">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2378,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2386,13 +2395,13 @@
         <v>76</v>
       </c>
       <c r="K49">
-        <v>0.2888888888888889</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2404,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2412,13 +2421,13 @@
         <v>77</v>
       </c>
       <c r="K50">
-        <v>0.2465753424657534</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2430,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2438,13 +2447,13 @@
         <v>78</v>
       </c>
       <c r="K51">
-        <v>0.2203389830508475</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2456,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2464,25 +2473,25 @@
         <v>79</v>
       </c>
       <c r="K52">
-        <v>0.01752921535893155</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1177</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2490,103 +2499,181 @@
         <v>80</v>
       </c>
       <c r="K53">
-        <v>0.006008261359369133</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N53">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>2647</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="K54">
-        <v>0.00440426518312471</v>
+        <v>0.21875</v>
       </c>
       <c r="L54">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N54">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>4295</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="K55">
-        <v>0.003497182824946571</v>
+        <v>0.01334445371142619</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M55">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N55">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O55">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>5129</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K56">
-        <v>0.003009027081243731</v>
+        <v>0.005997001499250375</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N56">
-        <v>0.58</v>
+        <v>0.76</v>
       </c>
       <c r="O56">
-        <v>0.42</v>
+        <v>0.24</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>4970</v>
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57">
+        <v>0.003709714815673545</v>
+      </c>
+      <c r="L57">
+        <v>16</v>
+      </c>
+      <c r="M57">
+        <v>31</v>
+      </c>
+      <c r="N57">
+        <v>0.52</v>
+      </c>
+      <c r="O57">
+        <v>0.48</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K58">
+        <v>0.003407496492283023</v>
+      </c>
+      <c r="L58">
+        <v>17</v>
+      </c>
+      <c r="M58">
+        <v>24</v>
+      </c>
+      <c r="N58">
+        <v>0.71</v>
+      </c>
+      <c r="O58">
+        <v>0.29</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>4972</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59">
+        <v>0.002721088435374149</v>
+      </c>
+      <c r="L59">
+        <v>14</v>
+      </c>
+      <c r="M59">
+        <v>34</v>
+      </c>
+      <c r="N59">
+        <v>0.41</v>
+      </c>
+      <c r="O59">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>5131</v>
       </c>
     </row>
   </sheetData>
